--- a/Appendix/2. Project Management/2.3 Sprint Backlogs/2.3.7 Sprint_Backlog_7.xlsx
+++ b/Appendix/2. Project Management/2.3 Sprint Backlogs/2.3.7 Sprint_Backlog_7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Honours\SprintBacklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Honours\Appendix\2. Project Management\2.3 Sprint Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -276,7 +276,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="74">
     <dxf>
       <fill>
         <patternFill>
@@ -659,146 +659,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -946,8 +806,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="93"/>
-      <tableStyleElement type="headerRow" dxfId="92"/>
+      <tableStyleElement type="wholeTable" dxfId="73"/>
+      <tableStyleElement type="headerRow" dxfId="72"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1255,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
@@ -2821,55 +2681,55 @@
         <v>202</v>
       </c>
       <c r="E43">
-        <f>SUM(E8:E39)</f>
+        <f t="shared" ref="E43:J43" si="0">SUM(E8:E39)</f>
         <v>142</v>
       </c>
       <c r="F43">
-        <f>SUM(F8:F39)</f>
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
       <c r="G43">
-        <f>SUM(G8:G39)</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="H43">
-        <f>SUM(H8:H39)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="I43">
-        <f>SUM(I8:I39)</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="J43">
-        <f>SUM(J8:J39)</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="K43">
-        <f>SUM(K8:K42)</f>
+        <f t="shared" ref="K43:Q43" si="1">SUM(K8:K42)</f>
         <v>81</v>
       </c>
       <c r="L43">
-        <f>SUM(L8:L42)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="M43">
-        <f>SUM(M8:M42)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="N43">
-        <f>SUM(N8:N42)</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="O43">
-        <f>SUM(O8:O42)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="P43">
-        <f>SUM(P8:P42)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="Q43">
-        <f>SUM(Q8:Q42)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="R43">
